--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E8" s="3">
         <v>233600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>166700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>154400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>123700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>162000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>161700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E9" s="3">
         <v>152300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>104100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E10" s="3">
         <v>81300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>47900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,28 +835,31 @@
         <v>3000</v>
       </c>
       <c r="E12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3300</v>
       </c>
       <c r="J12" s="3">
         <v>3300</v>
       </c>
       <c r="K12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>98700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -887,20 +907,23 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>10400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E17" s="3">
         <v>299400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>155800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>149500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>122500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>160400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>164000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>150400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2500</v>
       </c>
       <c r="I20" s="3">
         <v>-2500</v>
       </c>
       <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-55400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,16 +1328,19 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1287,11 +1348,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2500</v>
       </c>
       <c r="I32" s="3">
         <v>2500</v>
       </c>
       <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E41" s="3">
         <v>125400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E43" s="3">
         <v>95000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>106600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>99100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>65000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E44" s="3">
         <v>164200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>201500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>201200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>195400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>163800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>173500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>175200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E46" s="3">
         <v>395900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>363800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>353100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>307900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>298700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>297400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>284900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E48" s="3">
         <v>166000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>174100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>184600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>183300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>185600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>179600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>153400</v>
+      </c>
+      <c r="E49" s="3">
         <v>157400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>260600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>264800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>269400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>274100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>279300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>293800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>658200</v>
+      </c>
+      <c r="E54" s="3">
         <v>729000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>808100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>808800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>772500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>766800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>772800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>769600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E57" s="3">
         <v>39200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2006,141 +2140,156 @@
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>75900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>80700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6300</v>
       </c>
       <c r="J58" s="3">
         <v>6300</v>
       </c>
       <c r="K58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E59" s="3">
         <v>89800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>62500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E60" s="3">
         <v>130000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>170200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>164400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>111300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E61" s="3">
         <v>199000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>239200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>168200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>140200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>194800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>221500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>216000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E62" s="3">
         <v>12800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>18300</v>
       </c>
       <c r="K62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E66" s="3">
         <v>341800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>357600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>362200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>329400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>322300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>340900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>333400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>390100</v>
+      </c>
+      <c r="E72" s="3">
         <v>341700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>407900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>402100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>402900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>393100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>398800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>437100</v>
+      </c>
+      <c r="E76" s="3">
         <v>387100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>450500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>446600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>443100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>444400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>432000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>436200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E89" s="3">
         <v>120000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-39000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E102" s="3">
         <v>79300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>278000</v>
+        <v>257600</v>
       </c>
       <c r="E8" s="3">
+        <v>248700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>229900</v>
+      </c>
+      <c r="G8" s="3">
         <v>233600</v>
       </c>
-      <c r="F8" s="3">
-        <v>166700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>154400</v>
-      </c>
       <c r="H8" s="3">
-        <v>123700</v>
+        <v>127400</v>
       </c>
       <c r="I8" s="3">
+        <v>113700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K8" s="3">
         <v>175700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>162000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>161700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161200</v>
+        <v>148000</v>
       </c>
       <c r="E9" s="3">
+        <v>147700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>137500</v>
+      </c>
+      <c r="G9" s="3">
         <v>152300</v>
       </c>
-      <c r="F9" s="3">
-        <v>111500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>104100</v>
-      </c>
       <c r="H9" s="3">
-        <v>75800</v>
+        <v>91700</v>
       </c>
       <c r="I9" s="3">
+        <v>81400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K9" s="3">
         <v>112400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>107900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>105300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>116800</v>
+        <v>109600</v>
       </c>
       <c r="E10" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G10" s="3">
         <v>81300</v>
       </c>
-      <c r="F10" s="3">
-        <v>55200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50300</v>
-      </c>
       <c r="H10" s="3">
-        <v>47900</v>
+        <v>35700</v>
       </c>
       <c r="I10" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K10" s="3">
         <v>63300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>54100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="3">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="3">
         <v>3000</v>
       </c>
       <c r="H12" s="3">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="I12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,31 +939,37 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G14" s="3">
         <v>98700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>212500</v>
+        <v>177300</v>
       </c>
       <c r="E17" s="3">
+        <v>184300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>171100</v>
+      </c>
+      <c r="G17" s="3">
         <v>299400</v>
       </c>
-      <c r="F17" s="3">
-        <v>155800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>149500</v>
-      </c>
       <c r="H17" s="3">
-        <v>122500</v>
+        <v>118600</v>
       </c>
       <c r="I17" s="3">
+        <v>110100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K17" s="3">
         <v>160400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>164000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>150400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>65500</v>
+        <v>80300</v>
       </c>
       <c r="E18" s="3">
+        <v>64400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-65800</v>
       </c>
-      <c r="F18" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4900</v>
-      </c>
       <c r="H18" s="3">
-        <v>1200</v>
+        <v>8800</v>
       </c>
       <c r="I18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,95 +1109,109 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1200</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2700</v>
-      </c>
       <c r="I20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>77200</v>
+        <v>88300</v>
       </c>
       <c r="E21" s="3">
-        <v>-55400</v>
+        <v>68300</v>
       </c>
       <c r="F21" s="3">
-        <v>21100</v>
+        <v>70900</v>
       </c>
       <c r="G21" s="3">
-        <v>15600</v>
+        <v>-38700</v>
       </c>
       <c r="H21" s="3">
-        <v>12900</v>
+        <v>13800</v>
       </c>
       <c r="I21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K21" s="3">
         <v>27000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>22200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1139,72 +1219,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64300</v>
+        <v>80800</v>
       </c>
       <c r="E23" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>57500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-68400</v>
       </c>
-      <c r="F23" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>5900</v>
       </c>
       <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K23" s="3">
         <v>12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15900</v>
+        <v>18500</v>
       </c>
       <c r="E24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
-      </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>48400</v>
+        <v>62300</v>
       </c>
       <c r="E26" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-66100</v>
       </c>
-      <c r="F26" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1300</v>
-      </c>
       <c r="H26" s="3">
-        <v>-2100</v>
+        <v>4200</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48400</v>
+        <v>62300</v>
       </c>
       <c r="E27" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-66100</v>
       </c>
-      <c r="F27" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2100</v>
+        <v>4200</v>
       </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,40 +1447,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>3100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1500</v>
       </c>
       <c r="I29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1200</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2700</v>
-      </c>
       <c r="I32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F33" s="3">
         <v>48400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-66100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F35" s="3">
         <v>48400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-66100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F41" s="3">
         <v>65300</v>
       </c>
-      <c r="E41" s="3">
-        <v>125400</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>125000</v>
+      </c>
+      <c r="H41" s="3">
         <v>46100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>43800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>41000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>37500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,136 +1864,166 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>73400</v>
+      </c>
+      <c r="F43" s="3">
         <v>102000</v>
       </c>
-      <c r="E43" s="3">
-        <v>95000</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>62500</v>
+      </c>
+      <c r="H43" s="3">
         <v>106600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>99100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>72400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>87400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>78800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>65000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F44" s="3">
         <v>149600</v>
       </c>
-      <c r="E44" s="3">
-        <v>164200</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>103700</v>
+      </c>
+      <c r="H44" s="3">
         <v>201500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>201200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>195400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>163800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>173500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>175200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>104600</v>
+      </c>
+      <c r="H45" s="3">
         <v>9600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>215400</v>
+      </c>
+      <c r="F46" s="3">
         <v>327900</v>
       </c>
-      <c r="E46" s="3">
-        <v>395900</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>393500</v>
+      </c>
+      <c r="H46" s="3">
         <v>363800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>353100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>307900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>298700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>297400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>284900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +2054,90 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>153100</v>
+      </c>
+      <c r="F48" s="3">
         <v>164500</v>
       </c>
-      <c r="E48" s="3">
-        <v>166000</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>313700</v>
+      </c>
+      <c r="H48" s="3">
         <v>174100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>180800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>184600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>183300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>185600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>179600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F49" s="3">
         <v>153400</v>
       </c>
-      <c r="E49" s="3">
-        <v>157400</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H49" s="3">
         <v>260600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>264800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>269400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>274100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>279300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>293800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2206,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F52" s="3">
         <v>12300</v>
       </c>
-      <c r="E52" s="3">
-        <v>9800</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>174700</v>
+      </c>
+      <c r="H52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>10700</v>
       </c>
       <c r="J52" s="3">
         <v>10500</v>
       </c>
       <c r="K52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>405900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>401100</v>
+      </c>
+      <c r="F54" s="3">
         <v>658200</v>
       </c>
-      <c r="E54" s="3">
-        <v>729000</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>729500</v>
+      </c>
+      <c r="H54" s="3">
         <v>808100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>808800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>772500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>766800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>772800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>769600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,45 +2356,53 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F57" s="3">
         <v>53800</v>
       </c>
-      <c r="E57" s="3">
-        <v>39200</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>31500</v>
+      </c>
+      <c r="H57" s="3">
         <v>31800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>36100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>29500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>35600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>38400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -2143,153 +2411,183 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>75900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>80700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F59" s="3">
         <v>90500</v>
       </c>
-      <c r="E59" s="3">
-        <v>89800</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>98800</v>
+      </c>
+      <c r="H59" s="3">
         <v>62500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>58200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>54200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>68700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>61100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>54300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F60" s="3">
         <v>145300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>130000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>95300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>170200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>164400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>111300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>101300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>99000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F61" s="3">
         <v>63900</v>
       </c>
-      <c r="E61" s="3">
-        <v>199000</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>198800</v>
+      </c>
+      <c r="H61" s="3">
         <v>239200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>168200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>140200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>194800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>221500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>216000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F62" s="3">
         <v>11900</v>
       </c>
-      <c r="E62" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H62" s="3">
         <v>23100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>23800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>24800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>174200</v>
+      </c>
+      <c r="F66" s="3">
         <v>221100</v>
       </c>
-      <c r="E66" s="3">
-        <v>341800</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>342400</v>
+      </c>
+      <c r="H66" s="3">
         <v>357600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>362200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>329400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>322300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>340900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>333400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>179200</v>
+      </c>
+      <c r="F72" s="3">
         <v>390100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>341700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>407900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>402100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>400800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>402900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>393100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>398800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>226900</v>
+      </c>
+      <c r="F76" s="3">
         <v>437100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>387100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>450500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>446600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>443100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>444400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>432000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>436200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F81" s="3">
         <v>48400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-66100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3229,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F83" s="3">
         <v>12900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>13100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>13600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>14200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F89" s="3">
         <v>83500</v>
       </c>
-      <c r="E89" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>9600</v>
-      </c>
       <c r="G89" s="3">
+        <v>119800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-29100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>36700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G91" s="3">
-        <v>-5300</v>
+        <v>-3400</v>
       </c>
       <c r="H91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-12700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,13 +3679,15 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3827,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-136000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-39000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>24100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>22700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-25200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>24200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-60100</v>
       </c>
-      <c r="E102" s="3">
-        <v>79300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>2300</v>
-      </c>
       <c r="G102" s="3">
+        <v>79100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I102" s="3">
         <v>13100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>322900</v>
+      </c>
+      <c r="E8" s="3">
         <v>257600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>248700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>229900</v>
       </c>
-      <c r="G8" s="3">
-        <v>233600</v>
-      </c>
       <c r="H8" s="3">
+        <v>193000</v>
+      </c>
+      <c r="I8" s="3">
         <v>127400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>95400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>175700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>162000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>161700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E9" s="3">
         <v>148000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>147700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>137500</v>
       </c>
-      <c r="G9" s="3">
-        <v>152300</v>
-      </c>
       <c r="H9" s="3">
+        <v>130900</v>
+      </c>
+      <c r="I9" s="3">
         <v>91700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>81400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>107900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E10" s="3">
         <v>109600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>101000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>92400</v>
       </c>
-      <c r="G10" s="3">
-        <v>81300</v>
-      </c>
       <c r="H10" s="3">
+        <v>62100</v>
+      </c>
+      <c r="I10" s="3">
         <v>35700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1900</v>
       </c>
       <c r="F12" s="3">
         <v>1900</v>
       </c>
       <c r="G12" s="3">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I12" s="3">
         <v>1800</v>
       </c>
       <c r="J12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3300</v>
       </c>
       <c r="M12" s="3">
         <v>3300</v>
       </c>
       <c r="N12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,25 +946,28 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>98700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -956,20 +975,23 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>10400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E17" s="3">
         <v>177300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>184300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>171100</v>
       </c>
-      <c r="G17" s="3">
-        <v>299400</v>
-      </c>
       <c r="H17" s="3">
+        <v>162100</v>
+      </c>
+      <c r="I17" s="3">
         <v>118600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>110100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>164000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>150400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E18" s="3">
         <v>80300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>64400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-65800</v>
-      </c>
       <c r="H18" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2900</v>
       </c>
       <c r="I20" s="3">
         <v>-2900</v>
       </c>
       <c r="J20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2500</v>
       </c>
       <c r="L20" s="3">
         <v>-2500</v>
       </c>
       <c r="M20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E21" s="3">
         <v>88300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-38700</v>
-      </c>
       <c r="H21" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I21" s="3">
         <v>13800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,8 +1240,8 @@
       <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
+      <c r="G22" s="3">
+        <v>500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
@@ -1213,8 +1252,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E23" s="3">
         <v>80800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-68400</v>
-      </c>
       <c r="H23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I23" s="3">
         <v>5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E24" s="3">
         <v>18500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14200</v>
       </c>
-      <c r="G24" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E26" s="3">
         <v>62300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-66100</v>
-      </c>
       <c r="H26" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E27" s="3">
         <v>62300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-66100</v>
-      </c>
       <c r="H27" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1462,28 +1522,28 @@
         <v>100</v>
       </c>
       <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3">
         <v>3100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>5100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="I29" s="3">
         <v>1500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2900</v>
       </c>
       <c r="I32" s="3">
         <v>2900</v>
       </c>
       <c r="J32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K32" s="3">
         <v>2600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2500</v>
       </c>
       <c r="L32" s="3">
         <v>2500</v>
       </c>
       <c r="M32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E33" s="3">
         <v>62400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-66100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E35" s="3">
         <v>62400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-66100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E41" s="3">
         <v>59700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +1959,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E43" s="3">
         <v>70800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>102000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>62500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>106600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>99100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>87400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E44" s="3">
         <v>84400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>149600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>103700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>201500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>201200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>195400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>163800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>173500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>175200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>104600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E46" s="3">
         <v>223500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>327900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>393500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>363800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>353100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>307900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>298700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>297400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>284900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E48" s="3">
         <v>150500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>153100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>164500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>313700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>174100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>180800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>184600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>183300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>185600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>179600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="E49" s="3">
         <v>23500</v>
       </c>
       <c r="F49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G49" s="3">
         <v>153400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>260600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>264800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>269400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>274100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>279300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>293800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>174700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E54" s="3">
         <v>405900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>401100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>658200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>729500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>808100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>808800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>772500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>766800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>772800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>769600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E57" s="3">
         <v>49200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +2538,7 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -2417,177 +2550,192 @@
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>75900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>80700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>6300</v>
       </c>
       <c r="M58" s="3">
         <v>6300</v>
       </c>
       <c r="N58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E59" s="3">
         <v>66100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>98800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E60" s="3">
         <v>116400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>125100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>145300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>130000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>95300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>164400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>111300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>99000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E61" s="3">
         <v>39100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>63900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>198800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>239200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>168200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>140200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>194800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>221500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>216000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E62" s="3">
         <v>12700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>18300</v>
       </c>
       <c r="N62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E66" s="3">
         <v>168100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>174200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>221100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>342400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>357600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>362200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>329400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>322300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>340900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>333400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>325200</v>
+      </c>
+      <c r="E72" s="3">
         <v>238700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>179200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>390100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>341700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>407900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>402100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>400800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>402900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>393100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>398800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E76" s="3">
         <v>237700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>226900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>437100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>387100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>450500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>446600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>443100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>444400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>432000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>436200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E81" s="3">
         <v>62400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-66100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E89" s="3">
         <v>60400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>52400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>83500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>119800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-3400</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,17 +3913,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-52900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-136000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-39000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>79100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E8" s="3">
         <v>322900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>257600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>248700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>229900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>193000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>127400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>95400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>175700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>162000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>161700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E9" s="3">
         <v>177100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>148000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>147700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>137500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>130900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>91700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>81400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>107900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>105300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E10" s="3">
         <v>145800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>101000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>92400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,19 +880,20 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1900</v>
       </c>
       <c r="G12" s="3">
         <v>1900</v>
@@ -888,28 +902,31 @@
         <v>1900</v>
       </c>
       <c r="I12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J12" s="3">
         <v>1800</v>
       </c>
       <c r="K12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3300</v>
       </c>
       <c r="N12" s="3">
         <v>3300</v>
       </c>
       <c r="O12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,28 +966,31 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>4800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>98700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -978,20 +998,23 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>10400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E17" s="3">
         <v>206800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>177300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>171100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>162100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>118600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>110100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>164000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>150400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E18" s="3">
         <v>116100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>80300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2900</v>
       </c>
       <c r="J20" s="3">
         <v>-2900</v>
       </c>
       <c r="K20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2500</v>
       </c>
       <c r="M20" s="3">
         <v>-2500</v>
       </c>
       <c r="N20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E21" s="3">
         <v>124100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>88300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>70900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1243,8 +1283,8 @@
       <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
+      <c r="H22" s="3">
+        <v>500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1255,8 +1295,8 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E23" s="3">
         <v>116100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>80800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>57500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E24" s="3">
         <v>27200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E26" s="3">
         <v>88900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>62300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E27" s="3">
         <v>88900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>43300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,40 +1571,43 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>100</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>100</v>
       </c>
       <c r="F29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3">
         <v>3100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>5100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-87000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2900</v>
       </c>
       <c r="J32" s="3">
         <v>2900</v>
       </c>
       <c r="K32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L32" s="3">
         <v>2600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2500</v>
       </c>
       <c r="M32" s="3">
         <v>2500</v>
       </c>
       <c r="N32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E33" s="3">
         <v>89000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-66100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E35" s="3">
         <v>89000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-66100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E41" s="3">
         <v>113000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E43" s="3">
         <v>68400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>70800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>102000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>62500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>106600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>99100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>87400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E44" s="3">
         <v>78500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>84400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>78900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>149600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>103700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>201500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>201200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>195400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>163800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>173500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>175200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>104600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>318300</v>
+      </c>
+      <c r="E46" s="3">
         <v>268300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>223500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>327900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>393500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>363800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>353100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>307900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>298700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>297400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>284900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E48" s="3">
         <v>146400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>150500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>153100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>164500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>313700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>174100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>184600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>183300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>185600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>179600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2217,40 +2328,43 @@
         <v>23400</v>
       </c>
       <c r="E49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="F49" s="3">
         <v>23500</v>
       </c>
       <c r="G49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H49" s="3">
         <v>153400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>260600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>264800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>269400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>274100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>279300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>293800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>174700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>492700</v>
+      </c>
+      <c r="E54" s="3">
         <v>446400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>405900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>401100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>658200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>729500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>808100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>808800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>772500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>766800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>772800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>769600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E57" s="3">
         <v>57300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,7 +2675,7 @@
         <v>1100</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
@@ -2553,189 +2687,204 @@
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>75900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>80700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>6300</v>
       </c>
       <c r="N58" s="3">
         <v>6300</v>
       </c>
       <c r="O58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E59" s="3">
         <v>67200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>98800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E60" s="3">
         <v>125700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>125100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>145300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>130000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>164400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>111300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>99000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E61" s="3">
         <v>38800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>198800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>239200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>168200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>140200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>194800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>221500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>216000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E62" s="3">
         <v>15600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>18300</v>
       </c>
       <c r="O62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E66" s="3">
         <v>180000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>174200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>221100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>342400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>357600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>362200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>329400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>322300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>340900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>333400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E72" s="3">
         <v>325200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>238700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>179200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>390100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>341700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>407900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>402100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>402900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>393100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>398800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E76" s="3">
         <v>266400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>226900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>437100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>387100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>450500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>446600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>443100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>444400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>432000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>436200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E81" s="3">
         <v>89000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-66100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E89" s="3">
         <v>119000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>52400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>83500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>119800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,20 +4147,21 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-52900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-136000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E102" s="3">
         <v>53300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>79100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>230500</v>
+      </c>
+      <c r="F8" s="3">
         <v>274600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>322900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>257600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>248700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>229900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>193000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>127400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>113700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>95400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>175700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>162000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>161700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>128500</v>
+      </c>
+      <c r="F9" s="3">
         <v>144700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>177100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>148000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>147700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>137500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>130900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>91700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>81400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>59800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>112400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>107900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>105300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F10" s="3">
         <v>129900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>145800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>109600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>101000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>92400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>62100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>32300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>35600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>63300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>54100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>56400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F12" s="3">
         <v>1800</v>
       </c>
       <c r="G12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I12" s="3">
         <v>1900</v>
       </c>
       <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>98700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>165100</v>
+      </c>
+      <c r="F17" s="3">
         <v>174700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>206800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>177300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>184300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>171100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>162100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>118600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>110100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>88500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>160400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>164000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>150400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F18" s="3">
         <v>99900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>116100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>80300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>64400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>58800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>30900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>15300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F21" s="3">
         <v>108000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>124100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>88300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>68300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>70900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>36000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>18700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>27000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>22200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,11 +1366,11 @@
       <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1298,11 +1378,11 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1310,96 +1390,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F23" s="3">
         <v>100000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>116100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>80800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>63600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>57500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>28300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F24" s="3">
         <v>23100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>27200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>18500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>14500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>14200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F26" s="3">
         <v>76900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>88900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>62300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>49100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>43300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F27" s="3">
         <v>76900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>88900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>62300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>49100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>43300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>20900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1690,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>3100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>5100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-87000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>1500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-4300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F33" s="3">
         <v>76900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>89000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>62400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>52200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>48400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-66100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F35" s="3">
         <v>76900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>89000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>62400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>52200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>48400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-66100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>159400</v>
+      </c>
+      <c r="F41" s="3">
         <v>171400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>113000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>59700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>55500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>65300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>125000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>46100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>43800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>41000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>37500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F43" s="3">
         <v>41200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>68400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>70800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>73400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>102000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>62500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>106600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>99100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>72400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>87400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>78800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>65000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F44" s="3">
         <v>97100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>78500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>84400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>78900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>149600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>103700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>201500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>201200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>195400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>163800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>173500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>175200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>104600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>333900</v>
+      </c>
+      <c r="F46" s="3">
         <v>318300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>268300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>223500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>215400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>327900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>393500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>363800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>353100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>307900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>298700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>297400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>284900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>141000</v>
+      </c>
+      <c r="F48" s="3">
         <v>144100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>146400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>150500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>153100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>164500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>313700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>174100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>180800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>184600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>183300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>185600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>179600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F49" s="3">
         <v>23400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>23400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>23500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>23500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>153400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>23800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>260600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>264800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>269400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>274100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>279300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>293800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2700,49 @@
         <v>6900</v>
       </c>
       <c r="E52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>12300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>174700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>10700</v>
       </c>
       <c r="N52" s="3">
         <v>10500</v>
       </c>
       <c r="O52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>11300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>469300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>505200</v>
+      </c>
+      <c r="F54" s="3">
         <v>492700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>446400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>405900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>401100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>658200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>729500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>808100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>808800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>772500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>766800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>772800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>769600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F57" s="3">
         <v>54600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>57300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>49200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>61000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>53800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>31500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>35600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>33900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>38400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,10 +2946,10 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -2690,201 +2958,231 @@
         <v>1000</v>
       </c>
       <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>75900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>80700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F59" s="3">
         <v>83100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>67200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>66100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>63100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>90500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>98800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>62500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>58200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>54200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>68700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>61100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>54300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F60" s="3">
         <v>138800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>125700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>116400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>125100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>145300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>130000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>95300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>170200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>164400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>111300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>101300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>99000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F61" s="3">
         <v>38500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>38800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>39100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>39300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>63900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>198800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>239200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>168200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>140200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>194800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>221500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>216000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F62" s="3">
         <v>15300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>12700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>26500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>24800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>16200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>18100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>156900</v>
+      </c>
+      <c r="F66" s="3">
         <v>192600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>180000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>168100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>174200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>221100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>342400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>357600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>362200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>329400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>322300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>340900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>333400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>472100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>445300</v>
+      </c>
+      <c r="F72" s="3">
         <v>398200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>325200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>238700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>179200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>390100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>341700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>407900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>402100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>400800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>402900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>393100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>398800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>348300</v>
+      </c>
+      <c r="F76" s="3">
         <v>300100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>266400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>237700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>226900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>437100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>387100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>450500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>446600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>443100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>444400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>432000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>436200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F81" s="3">
         <v>76900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>89000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>62400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>52200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>48400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-66100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>12900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F89" s="3">
         <v>109100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>119000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>60400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>52400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>83500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>119800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>9800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-29100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>36700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>11700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,26 +4614,28 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-2800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-44900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-62000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-53100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-52900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-136000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-39000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>24100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>22700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-25200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>24200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F102" s="3">
         <v>58400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>53300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-60100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>79100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E8" s="3">
         <v>177700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>230500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>274600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>322900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>257600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>248700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>175700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>162000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>161700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E9" s="3">
         <v>107300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>128500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>144700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>177100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>148000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>147700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>137500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>91700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>81400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>107900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>105300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E10" s="3">
         <v>70400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>102000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>129900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>145800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>101000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>92400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>63300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,28 +921,29 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
         <v>1700</v>
       </c>
       <c r="F12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1900</v>
       </c>
       <c r="J12" s="3">
         <v>1900</v>
@@ -939,28 +952,31 @@
         <v>1900</v>
       </c>
       <c r="L12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M12" s="3">
         <v>1800</v>
       </c>
       <c r="N12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3300</v>
       </c>
       <c r="Q12" s="3">
         <v>3300</v>
       </c>
       <c r="R12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,23 +1042,23 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>98700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1047,20 +1066,23 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E17" s="3">
         <v>138000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>165100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>174700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>206800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>177300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>184300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>171100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>160400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>164000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>150400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E18" s="3">
         <v>39700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>65400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>99900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>116100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>64400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2900</v>
       </c>
       <c r="M20" s="3">
         <v>-2900</v>
       </c>
       <c r="N20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2500</v>
       </c>
       <c r="P20" s="3">
         <v>-2500</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E21" s="3">
         <v>47600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>108000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>88300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>70900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,8 +1411,8 @@
       <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
+      <c r="K22" s="3">
+        <v>500</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1384,8 +1423,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E23" s="3">
         <v>39900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>80800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>63600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>57500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E26" s="3">
         <v>30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>88900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>62300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E27" s="3">
         <v>30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>76900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>88900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,35 +1770,35 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>100</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>100</v>
       </c>
       <c r="I29" s="3">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3">
         <v>3100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>5100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-87000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2900</v>
       </c>
       <c r="M32" s="3">
         <v>2900</v>
       </c>
       <c r="N32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O32" s="3">
         <v>2600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2500</v>
       </c>
       <c r="P32" s="3">
         <v>2500</v>
       </c>
       <c r="Q32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E33" s="3">
         <v>30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>89000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E35" s="3">
         <v>30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>89000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E41" s="3">
         <v>107300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>171400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>59700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E43" s="3">
         <v>51600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>68400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>70800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>73400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>102000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>106600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>99100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>72400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>87400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E44" s="3">
         <v>134300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>97100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>78500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>84400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>78900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>149600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>103700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>201500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>201200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>195400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>173500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>175200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>104600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>327600</v>
+      </c>
+      <c r="E46" s="3">
         <v>300700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>333900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>268300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>223500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>215400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>327900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>393500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>363800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>353100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>307900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>298700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>297400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>284900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E48" s="3">
         <v>138400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>141000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>144100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>146400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>150500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>153100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>164500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>313700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>174100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>180800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>184600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>185600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>179600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="E49" s="3">
         <v>23300</v>
       </c>
       <c r="F49" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="G49" s="3">
         <v>23400</v>
       </c>
       <c r="H49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="I49" s="3">
         <v>23500</v>
       </c>
       <c r="J49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K49" s="3">
         <v>153400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>260600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>264800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>269400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>274100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>279300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>293800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6900</v>
+        <v>8100</v>
       </c>
       <c r="E52" s="3">
         <v>6900</v>
@@ -2706,43 +2825,46 @@
         <v>6900</v>
       </c>
       <c r="G52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>497500</v>
+      </c>
+      <c r="E54" s="3">
         <v>469300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>505200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>492700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>446400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>405900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>401100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>658200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>729500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>808100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>808800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>772500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>766800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>772800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>769600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,63 +3010,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
         <v>36100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -2952,7 +3085,7 @@
         <v>1100</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -2964,225 +3097,240 @@
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>75900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>80700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>6300</v>
       </c>
       <c r="Q58" s="3">
         <v>6300</v>
       </c>
       <c r="R58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E59" s="3">
         <v>55900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>63100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>90500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>68700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E60" s="3">
         <v>93000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>138800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>125700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>125100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>145300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>130000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>170200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>164400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>99000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E61" s="3">
         <v>37900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>63900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>198800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>239200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>168200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>140200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>194800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>221500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>216000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E62" s="3">
         <v>12000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>18300</v>
       </c>
       <c r="R62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E66" s="3">
         <v>143000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>156900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>192600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>174200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>221100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>342400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>357600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>362200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>329400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>322300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>340900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>333400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>504600</v>
+      </c>
+      <c r="E72" s="3">
         <v>472100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>445300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>398200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>325200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>238700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>179200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>390100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>341700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>407900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>402100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>400800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>402900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>393100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>398800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E76" s="3">
         <v>326300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>348300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>266400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>237700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>226900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>437100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>387100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>450500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>446600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>443100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>444400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>432000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>436200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E81" s="3">
         <v>30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>89000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>109100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>119000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>60400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>52400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>83500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-29100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,29 +4848,30 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3700</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3800</v>
       </c>
       <c r="F96" s="3">
         <v>-3800</v>
       </c>
       <c r="G96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-54000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-44900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-136000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>79100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E8" s="3">
         <v>181300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>177700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>230500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>274600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>322900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>257600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>248700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>127400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>175700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>162000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>161700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E9" s="3">
         <v>109100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>128500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>144700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>177100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>148000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>147700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>137500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>130900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>91700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>81400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>107900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>105300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E10" s="3">
         <v>72200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>129900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>145800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>109600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>101000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>92400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>63300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,31 +935,32 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1700</v>
       </c>
       <c r="F12" s="3">
         <v>1700</v>
       </c>
       <c r="G12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1900</v>
       </c>
       <c r="K12" s="3">
         <v>1900</v>
@@ -955,28 +969,31 @@
         <v>1900</v>
       </c>
       <c r="M12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="N12" s="3">
         <v>1800</v>
       </c>
       <c r="O12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3300</v>
       </c>
       <c r="R12" s="3">
         <v>3300</v>
       </c>
       <c r="S12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>2200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1045,23 +1065,23 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>98700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1069,20 +1089,23 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>10400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E17" s="3">
         <v>134600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>138000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>165100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>206800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>177300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>184300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>171100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>162100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>164000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>150400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>46700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>99900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>116100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>80300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>64400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2900</v>
       </c>
       <c r="N20" s="3">
         <v>-2900</v>
       </c>
       <c r="O20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2500</v>
       </c>
       <c r="Q20" s="3">
         <v>-2500</v>
       </c>
       <c r="R20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>54900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>108000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>88300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,8 +1454,8 @@
       <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>500</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1426,8 +1466,8 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>46700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>80800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>63600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>10600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>88900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>62300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>49100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>36100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>76900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>88900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,35 +1834,35 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>100</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>100</v>
       </c>
       <c r="J29" s="3">
+        <v>100</v>
+      </c>
+      <c r="K29" s="3">
         <v>3100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-87000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2900</v>
       </c>
       <c r="N32" s="3">
         <v>2900</v>
       </c>
       <c r="O32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P32" s="3">
         <v>2600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2500</v>
       </c>
       <c r="Q32" s="3">
         <v>2500</v>
       </c>
       <c r="R32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>36100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>89000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-66100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>36100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>89000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-66100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E41" s="3">
         <v>120700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>171400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E43" s="3">
         <v>64600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>68400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>70800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>73400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>102000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>62500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>106600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>99100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>72400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>87400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>78800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E44" s="3">
         <v>136700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>134300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>97100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>78500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>84400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>78900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>149600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>103700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>201500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>201200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>195400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>163800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>173500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>175200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>326400</v>
+      </c>
+      <c r="E46" s="3">
         <v>327600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>333900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>318300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>268300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>223500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>215400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>327900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>393500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>363800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>353100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>307900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>298700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>297400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>284900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E48" s="3">
         <v>139100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>138400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>141000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>144100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>146400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>150500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>153100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>164500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>313700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>174100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>180800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>184600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>183300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>185600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>179600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,52 +2771,55 @@
         <v>22600</v>
       </c>
       <c r="E49" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="F49" s="3">
         <v>23300</v>
       </c>
       <c r="G49" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="H49" s="3">
         <v>23400</v>
       </c>
       <c r="I49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="J49" s="3">
         <v>23500</v>
       </c>
       <c r="K49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="L49" s="3">
         <v>153400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>260600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>264800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>269400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>274100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>279300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>293800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6900</v>
       </c>
       <c r="F52" s="3">
         <v>6900</v>
@@ -2828,43 +2948,46 @@
         <v>6900</v>
       </c>
       <c r="H52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>174700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>521300</v>
+      </c>
+      <c r="E54" s="3">
         <v>497500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>469300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>505200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>492700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>446400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>405900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>401100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>658200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>729500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>808100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>808800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>772500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>766800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>772800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>769600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E57" s="3">
         <v>30000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
@@ -3088,7 +3222,7 @@
         <v>1100</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
@@ -3100,237 +3234,252 @@
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>75900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>80700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>6300</v>
       </c>
       <c r="R58" s="3">
         <v>6300</v>
       </c>
       <c r="S58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E59" s="3">
         <v>57700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>63100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>90500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>68700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E60" s="3">
         <v>88900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>138800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>116400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>125100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>145300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>130000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>95300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>170200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>164400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>99000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E61" s="3">
         <v>37600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>63900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>198800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>239200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>168200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>140200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>194800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>221500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>216000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E62" s="3">
         <v>10400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>18300</v>
       </c>
       <c r="S62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E66" s="3">
         <v>137000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>156900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>192600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>174200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>221100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>342400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>357600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>362200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>329400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>322300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>340900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>333400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E72" s="3">
         <v>504600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>472100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>445300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>398200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>325200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>238700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>179200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>390100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>341700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>407900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>402100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>400800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>402900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>393100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>398800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>359400</v>
+      </c>
+      <c r="E76" s="3">
         <v>360500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>326300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>348300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>266400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>237700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>226900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>437100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>387100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>450500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>446600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>443100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>444400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>432000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>436200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>36100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>89000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-66100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>25500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>109100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>119000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>52400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-29100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,32 +5082,33 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-3800</v>
       </c>
       <c r="G96" s="3">
         <v>-3800</v>
       </c>
       <c r="H96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-54000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-44900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-136000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E102" s="3">
         <v>13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-52100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>53300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E8" s="3">
         <v>84400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>181300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>230500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>274600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>322900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>257600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>248700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>193000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>127400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>95400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>175700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>162000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>161700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E9" s="3">
         <v>51700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>107300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>128500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>144700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>148000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>147700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>130900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>91700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>81400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>107900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>105300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E10" s="3">
         <v>32700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>129900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>145800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>92400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>63300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,34 +949,35 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1700</v>
       </c>
       <c r="G12" s="3">
         <v>1700</v>
       </c>
       <c r="H12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1900</v>
       </c>
       <c r="L12" s="3">
         <v>1900</v>
@@ -972,28 +986,31 @@
         <v>1900</v>
       </c>
       <c r="N12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="O12" s="3">
         <v>1800</v>
       </c>
       <c r="P12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3300</v>
       </c>
       <c r="S12" s="3">
         <v>3300</v>
       </c>
       <c r="T12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,16 +1065,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1068,23 +1088,23 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>98700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1092,20 +1112,23 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>10400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E17" s="3">
         <v>80500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>134600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>138000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>165100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>174700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>206800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>177300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>171100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>162100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>110100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>164000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>150400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>65400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>99900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>116100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2900</v>
       </c>
       <c r="O20" s="3">
         <v>-2900</v>
       </c>
       <c r="P20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2500</v>
       </c>
       <c r="R20" s="3">
         <v>-2500</v>
       </c>
       <c r="S20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>108000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>124100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>88300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>70900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,8 +1497,8 @@
       <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>500</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1469,8 +1509,8 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>116100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>80800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>63600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>88900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>62300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>49100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>88900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,35 +1898,35 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>100</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>100</v>
       </c>
       <c r="K29" s="3">
+        <v>100</v>
+      </c>
+      <c r="L29" s="3">
         <v>3100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-87000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2900</v>
       </c>
       <c r="O32" s="3">
         <v>2900</v>
       </c>
       <c r="P32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2500</v>
       </c>
       <c r="R32" s="3">
         <v>2500</v>
       </c>
       <c r="S32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>76900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>89000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>62400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>76900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>89000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>62400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E41" s="3">
         <v>110500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>120700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>159400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>171400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E43" s="3">
         <v>24500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>70800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>102000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>106600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>99100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>72400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>87400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>78800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E44" s="3">
         <v>182500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>136700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>134300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>120300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>97100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>78500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>84400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>149600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>103700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>201500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>201200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>195400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>163800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>173500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>175200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>104600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>302900</v>
+      </c>
+      <c r="E46" s="3">
         <v>326400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>327600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>333900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>318300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>268300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>223500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>327900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>393500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>363800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>353100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>307900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>298700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>297400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>284900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E48" s="3">
         <v>164100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>138400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>141000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>144100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>146400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>150500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>153100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>164500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>313700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>174100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>180800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>184600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>183300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>185600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>179600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="E49" s="3">
         <v>22600</v>
       </c>
       <c r="F49" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="G49" s="3">
         <v>23300</v>
       </c>
       <c r="H49" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="I49" s="3">
         <v>23400</v>
       </c>
       <c r="J49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="K49" s="3">
         <v>23500</v>
       </c>
       <c r="L49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="M49" s="3">
         <v>153400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>260600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>264800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>269400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>274100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>279300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>293800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,10 +3059,10 @@
         <v>8200</v>
       </c>
       <c r="E52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F52" s="3">
         <v>8100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6900</v>
       </c>
       <c r="G52" s="3">
         <v>6900</v>
@@ -2951,43 +3071,46 @@
         <v>6900</v>
       </c>
       <c r="I52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E54" s="3">
         <v>521300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>497500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>469300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>505200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>492700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>446400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>405900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>401100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>658200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>729500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>808100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>808800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>772500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>766800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>772800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>769600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E57" s="3">
         <v>53900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3344,7 @@
         <v>1200</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
@@ -3225,7 +3359,7 @@
         <v>1100</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -3237,249 +3371,264 @@
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>75900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>80700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>6300</v>
       </c>
       <c r="S58" s="3">
         <v>6300</v>
       </c>
       <c r="T58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E59" s="3">
         <v>60000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>90500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>68700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E60" s="3">
         <v>115100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>125700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>116400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>145300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>130000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>170200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>164400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>111300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>99000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E61" s="3">
         <v>37300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>63900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>198800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>239200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>168200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>140200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>194800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>221500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>216000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
         <v>9400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>18300</v>
       </c>
       <c r="T62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E66" s="3">
         <v>161800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>156900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>192600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>168100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>174200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>221100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>342400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>357600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>362200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>329400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>322300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>340900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>333400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>508400</v>
+      </c>
+      <c r="E72" s="3">
         <v>503400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>504600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>472100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>445300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>398200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>325200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>238700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>179200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>390100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>341700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>407900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>402100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>400800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>402900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>393100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>398800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>366600</v>
+      </c>
+      <c r="E76" s="3">
         <v>359400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>360500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>326300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>348300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>266400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>237700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>226900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>437100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>387100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>450500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>446600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>443100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>444400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>432000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>436200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>76900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>89000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>62400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>109100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>119000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>60400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>83500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,26 +5326,26 @@
         <v>-4600</v>
       </c>
       <c r="E96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3800</v>
       </c>
       <c r="H96" s="3">
         <v>-3800</v>
       </c>
       <c r="I96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-54000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-53100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-136000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-39000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>53300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E8" s="3">
         <v>121000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>84400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>181300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>230500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>274600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>322900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>257600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>248700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>193000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>127400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>95400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>175700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>162000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>161700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E9" s="3">
         <v>80000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>107300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>128500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>144700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>147700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>137500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>130900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>91700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>107900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>105300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E10" s="3">
         <v>41000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>102000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>129900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>145800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>101000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>92400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>63300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,37 +963,38 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1700</v>
       </c>
       <c r="H12" s="3">
         <v>1700</v>
       </c>
       <c r="I12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1900</v>
       </c>
       <c r="M12" s="3">
         <v>1900</v>
@@ -989,28 +1003,31 @@
         <v>1900</v>
       </c>
       <c r="O12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="P12" s="3">
         <v>1800</v>
       </c>
       <c r="Q12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>3300</v>
       </c>
       <c r="T12" s="3">
         <v>3300</v>
       </c>
       <c r="U12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,19 +1085,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1091,23 +1111,23 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>98700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1115,20 +1135,23 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>10400</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E17" s="3">
         <v>108500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>80500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>134600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>138000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>165100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>174700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>206800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>177300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>184300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>171100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>162100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>110100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>164000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>150400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E18" s="3">
         <v>12500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>65400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>99900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>116100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2900</v>
       </c>
       <c r="P20" s="3">
         <v>-2900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2500</v>
       </c>
       <c r="S20" s="3">
         <v>-2500</v>
       </c>
       <c r="T20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E21" s="3">
         <v>21000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>54900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>74000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>108000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>124100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>88300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>70900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1500,8 +1540,8 @@
       <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
+      <c r="N22" s="3">
+        <v>500</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
@@ -1512,8 +1552,8 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E23" s="3">
         <v>12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>116100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>80800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>63600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>88900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>49100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,35 +1962,35 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>100</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>100</v>
       </c>
       <c r="L29" s="3">
+        <v>100</v>
+      </c>
+      <c r="M29" s="3">
         <v>3100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-87000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2900</v>
       </c>
       <c r="P32" s="3">
         <v>2900</v>
       </c>
       <c r="Q32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R32" s="3">
         <v>2600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2500</v>
       </c>
       <c r="S32" s="3">
         <v>2500</v>
       </c>
       <c r="T32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>76900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>89000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>76900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>89000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E41" s="3">
         <v>43000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>110500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>120700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>171400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>36400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E43" s="3">
         <v>55400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>68400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>102000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>62500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>106600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>99100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>72400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>87400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>78800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>65000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E44" s="3">
         <v>196500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>182500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>136700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>134300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>120300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>78500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>84400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>149600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>103700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>201500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>201200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>195400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>163800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>173500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>175200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>104600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E46" s="3">
         <v>302900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>326400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>327600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>333900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>318300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>268300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>223500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>327900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>393500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>363800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>353100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>307900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>298700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>297400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>284900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E48" s="3">
         <v>172200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>164100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>139100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>138400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>141000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>146400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>150500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>153100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>164500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>313700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>174100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>180800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>184600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>183300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>185600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>179600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E49" s="3">
         <v>22700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>22600</v>
       </c>
       <c r="F49" s="3">
         <v>22600</v>
       </c>
       <c r="G49" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="H49" s="3">
         <v>23300</v>
       </c>
       <c r="I49" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="J49" s="3">
         <v>23400</v>
       </c>
       <c r="K49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="L49" s="3">
         <v>23500</v>
       </c>
       <c r="M49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="N49" s="3">
         <v>153400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>260600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>264800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>269400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>274100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>279300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>293800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,22 +3167,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E52" s="3">
         <v>8200</v>
       </c>
       <c r="F52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G52" s="3">
         <v>8100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6900</v>
       </c>
       <c r="H52" s="3">
         <v>6900</v>
@@ -3074,43 +3194,46 @@
         <v>6900</v>
       </c>
       <c r="J52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>529200</v>
+      </c>
+      <c r="E54" s="3">
         <v>506000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>521300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>497500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>469300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>505200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>492700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>446400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>405900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>401100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>658200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>729500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>808100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>808800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>772500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>766800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>772800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>769600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E57" s="3">
         <v>45200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3347,7 +3481,7 @@
         <v>1200</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
@@ -3362,7 +3496,7 @@
         <v>1100</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
@@ -3374,261 +3508,276 @@
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>75900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>80700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6300</v>
       </c>
       <c r="T58" s="3">
         <v>6300</v>
       </c>
       <c r="U58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E59" s="3">
         <v>47200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>98800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>62500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>68700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>61100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>54300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E60" s="3">
         <v>93600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>103700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>125700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>116400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>145300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>130000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>95300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>170200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>164400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>111300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>99000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E61" s="3">
         <v>37000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>63900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>198800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>239200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>168200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>140200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>194800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>221500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>216000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>18300</v>
       </c>
       <c r="U62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E66" s="3">
         <v>139400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>156900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>192600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>174200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>221100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>342400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>357600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>362200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>329400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>322300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>340900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>333400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>514900</v>
+      </c>
+      <c r="E72" s="3">
         <v>508400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>503400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>504600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>472100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>445300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>398200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>325200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>238700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>179200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>390100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>341700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>407900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>402100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>400800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>402900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>393100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>398800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>374400</v>
+      </c>
+      <c r="E76" s="3">
         <v>366600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>359400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>360500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>326300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>348300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>266400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>237700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>226900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>437100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>387100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>450500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>446600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>443100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>444400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>432000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>436200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>76900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>89000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>109100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>119000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>60400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>83500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>119800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-29100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27900</v>
+        <v>-25200</v>
       </c>
       <c r="E91" s="3">
-        <v>-11500</v>
+        <v>-28000</v>
       </c>
       <c r="F91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-4300</v>
-      </c>
       <c r="I91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5329,26 +5563,26 @@
         <v>-4600</v>
       </c>
       <c r="F96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-3800</v>
       </c>
       <c r="I96" s="3">
         <v>-3800</v>
       </c>
       <c r="J96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-54000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-44900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-53100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-136000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-39000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>24200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-67500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>53300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-60100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E8" s="3">
         <v>129000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>121000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>84400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>181300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>177700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>230500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>274600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>322900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>257600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>248700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>193000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>127400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>95400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>175700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>162000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>161700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E9" s="3">
         <v>86900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>80000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>107300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>144700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>147700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>137500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>130900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>91700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>107900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>105300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E10" s="3">
         <v>42100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>102000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>129900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>145800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>109600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>101000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>92400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>63300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,40 +976,41 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1700</v>
       </c>
       <c r="I12" s="3">
         <v>1700</v>
       </c>
       <c r="J12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1900</v>
       </c>
       <c r="N12" s="3">
         <v>1900</v>
@@ -1006,28 +1019,31 @@
         <v>1900</v>
       </c>
       <c r="P12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="Q12" s="3">
         <v>1800</v>
       </c>
       <c r="R12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3500</v>
-      </c>
-      <c r="T12" s="3">
-        <v>3300</v>
       </c>
       <c r="U12" s="3">
         <v>3300</v>
       </c>
       <c r="V12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,22 +1104,25 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1114,23 +1133,23 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>98700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1138,20 +1157,23 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>10400</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E17" s="3">
         <v>114900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>108500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>134600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>138000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>165100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>174700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>206800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>177300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>184300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>171100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>162100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>118600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>110100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>160400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>164000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>150400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>14100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>65400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>99900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>116100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2900</v>
       </c>
       <c r="Q20" s="3">
         <v>-2900</v>
       </c>
       <c r="R20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2500</v>
       </c>
       <c r="T20" s="3">
         <v>-2500</v>
       </c>
       <c r="U20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E21" s="3">
         <v>21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>74000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>108000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>88300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>70900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1543,8 +1582,8 @@
       <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="O22" s="3">
+        <v>500</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -1555,8 +1594,8 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E23" s="3">
         <v>14500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>88900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>49100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E27" s="3">
         <v>11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>50900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>88900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>49100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,35 +2025,35 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>100</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>100</v>
       </c>
       <c r="M29" s="3">
+        <v>100</v>
+      </c>
+      <c r="N29" s="3">
         <v>3100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-87000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2900</v>
       </c>
       <c r="Q32" s="3">
         <v>2900</v>
       </c>
       <c r="R32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S32" s="3">
         <v>2600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2500</v>
       </c>
       <c r="T32" s="3">
         <v>2500</v>
       </c>
       <c r="U32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E33" s="3">
         <v>11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>50900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>76900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>52200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-66100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E35" s="3">
         <v>11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>50900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>76900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>52200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-66100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E41" s="3">
         <v>44600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>110500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>120700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>171400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>59700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E43" s="3">
         <v>65900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>73400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>102000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>106600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>99100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>72400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>87400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>78800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>65000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E44" s="3">
         <v>193400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>196500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>182500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>136700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>134300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>120300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>97100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>84400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>149600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>103700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>201500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>201200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>195400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>173500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>175200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>104600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E46" s="3">
         <v>309900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>302900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>326400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>327600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>333900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>318300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>268300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>223500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>327900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>393500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>363800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>353100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>307900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>298700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>297400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>284900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>212200</v>
+      </c>
+      <c r="E48" s="3">
         <v>188700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>172200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>164100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>138400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>141000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>146400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>150500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>153100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>164500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>313700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>174100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>180800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>184600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>183300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>185600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>179600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,61 +3103,64 @@
         <v>22600</v>
       </c>
       <c r="E49" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F49" s="3">
         <v>22700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>22600</v>
       </c>
       <c r="G49" s="3">
         <v>22600</v>
       </c>
       <c r="H49" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="I49" s="3">
         <v>23300</v>
       </c>
       <c r="J49" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="K49" s="3">
         <v>23400</v>
       </c>
       <c r="L49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="M49" s="3">
         <v>23500</v>
       </c>
       <c r="N49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="O49" s="3">
         <v>153400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>260600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>264800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>269400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>274100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>279300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>293800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,25 +3286,28 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8200</v>
       </c>
       <c r="F52" s="3">
         <v>8200</v>
       </c>
       <c r="G52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H52" s="3">
         <v>8100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6900</v>
       </c>
       <c r="I52" s="3">
         <v>6900</v>
@@ -3197,43 +3316,46 @@
         <v>6900</v>
       </c>
       <c r="K52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>174700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>541300</v>
+      </c>
+      <c r="E54" s="3">
         <v>529200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>506000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>521300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>497500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>469300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>505200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>492700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>446400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>405900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>401100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>658200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>729500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>808100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>808800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>772500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>766800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>772800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>769600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,75 +3533,79 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E57" s="3">
         <v>37800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
@@ -3484,7 +3617,7 @@
         <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
@@ -3499,7 +3632,7 @@
         <v>1100</v>
       </c>
       <c r="M58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -3511,273 +3644,288 @@
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>75900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>80700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>6300</v>
       </c>
       <c r="U58" s="3">
         <v>6300</v>
       </c>
       <c r="V58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E59" s="3">
         <v>46300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>55900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>98800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>62500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>68700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>61100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>54300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E60" s="3">
         <v>85300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>115100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>138800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>116400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>125100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>145300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>130000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>95300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>170200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>164400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>111300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>101300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>99000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E61" s="3">
         <v>61500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>63900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>198800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>239200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>168200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>140200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>194800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>221500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>216000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>18300</v>
       </c>
       <c r="V62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E66" s="3">
         <v>154800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>139400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>137000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>156900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>192600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>174200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>221100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>342400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>357600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>362200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>329400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>322300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>340900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>333400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>523200</v>
+      </c>
+      <c r="E72" s="3">
         <v>514900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>508400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>503400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>504600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>472100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>445300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>398200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>325200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>238700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>179200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>390100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>341700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>407900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>402100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>400800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>402900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>393100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>398800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E76" s="3">
         <v>374400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>366600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>359400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>360500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>326300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>348300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>266400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>237700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>226900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>437100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>387100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>450500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>446600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>443100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>444400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>432000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>436200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E81" s="3">
         <v>11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>50900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>76900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>52200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-66100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>109100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>52400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>119800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-29100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5566,26 +5799,26 @@
         <v>-4600</v>
       </c>
       <c r="G96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3800</v>
       </c>
       <c r="J96" s="3">
         <v>-3800</v>
       </c>
       <c r="K96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>19900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-54000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-44900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-136000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>24200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-67500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-52100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>53300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SWBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E8" s="3">
         <v>144800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>129000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>121000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>84400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>181300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>177700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>230500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>322900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>257600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>248700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>193000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>113700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>95400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>175700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>162000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>161700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E9" s="3">
         <v>102200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>80000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>109100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>128500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>144700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>177100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>148000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>147700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>137500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>130900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>112400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>107900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>105300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E10" s="3">
         <v>42600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>129900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>145800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>109600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>101000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>92400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>63300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>52400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,43 +990,44 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1700</v>
       </c>
       <c r="J12" s="3">
         <v>1700</v>
       </c>
       <c r="K12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1900</v>
       </c>
       <c r="O12" s="3">
         <v>1900</v>
@@ -1022,28 +1036,31 @@
         <v>1900</v>
       </c>
       <c r="Q12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="R12" s="3">
         <v>1800</v>
       </c>
       <c r="S12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>3300</v>
       </c>
       <c r="V12" s="3">
         <v>3300</v>
       </c>
       <c r="W12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,25 +1124,28 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1136,23 +1156,23 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>98700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1160,20 +1180,23 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>10400</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E17" s="3">
         <v>126900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>108500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>134600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>138000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>165100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>174700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>206800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>177300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>184300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>171100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>162100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>110100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>88500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>160400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>164000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>150400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>125400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>65400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>116100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2900</v>
       </c>
       <c r="R20" s="3">
         <v>-2900</v>
       </c>
       <c r="S20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2500</v>
       </c>
       <c r="U20" s="3">
         <v>-2500</v>
       </c>
       <c r="V20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E21" s="3">
         <v>26800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>108000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>88300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>70900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,8 +1625,8 @@
       <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
+      <c r="P22" s="3">
+        <v>500</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
@@ -1597,8 +1637,8 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>16700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>46700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>116100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>88900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>62300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>49100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>50900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>88900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,35 +2089,35 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>100</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>100</v>
       </c>
       <c r="N29" s="3">
+        <v>100</v>
+      </c>
+      <c r="O29" s="3">
         <v>3100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2900</v>
       </c>
       <c r="R32" s="3">
         <v>2900</v>
       </c>
       <c r="S32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T32" s="3">
         <v>2600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2500</v>
       </c>
       <c r="U32" s="3">
         <v>2500</v>
       </c>
       <c r="V32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>50900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>89000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>50900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>89000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E41" s="3">
         <v>53600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>110500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>120700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>159400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>113000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>65300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>125000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>36400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E43" s="3">
         <v>56300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>70800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>73400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>102000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>106600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>99100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>72400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>87400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>78800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>65000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E44" s="3">
         <v>177100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>193400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>196500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>182500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>136700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>134300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>120300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>84400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>149600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>103700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>201500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>201200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>195400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>163800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>173500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>175200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>104600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E46" s="3">
         <v>291900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>309900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>302900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>326400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>327600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>333900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>318300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>268300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>223500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>215400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>327900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>393500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>363800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>353100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>307900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>298700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>297400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>284900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E48" s="3">
         <v>212200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>188700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>172200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>164100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>139100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>138400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>141000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>146400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>150500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>153100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>164500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>313700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>174100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>180800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>184600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>183300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>185600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>179600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3106,61 +3217,64 @@
         <v>22600</v>
       </c>
       <c r="F49" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G49" s="3">
         <v>22700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>22600</v>
       </c>
       <c r="H49" s="3">
         <v>22600</v>
       </c>
       <c r="I49" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="J49" s="3">
         <v>23300</v>
       </c>
       <c r="K49" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="L49" s="3">
         <v>23400</v>
       </c>
       <c r="M49" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="N49" s="3">
         <v>23500</v>
       </c>
       <c r="O49" s="3">
+        <v>23500</v>
+      </c>
+      <c r="P49" s="3">
         <v>153400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>260600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>264800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>269400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>274100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>279300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>293800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,28 +3406,31 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8200</v>
       </c>
       <c r="G52" s="3">
         <v>8200</v>
       </c>
       <c r="H52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I52" s="3">
         <v>8100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>6900</v>
       </c>
       <c r="J52" s="3">
         <v>6900</v>
@@ -3319,43 +3439,46 @@
         <v>6900</v>
       </c>
       <c r="L52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>174700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>537700</v>
+      </c>
+      <c r="E54" s="3">
         <v>541300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>529200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>506000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>521300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>497500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>469300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>505200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>492700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>446400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>405900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>401100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>658200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>729500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>808100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>808800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>772500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>766800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>772800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>769600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>726800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,81 +3664,85 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E57" s="3">
         <v>36800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
@@ -3620,7 +3754,7 @@
         <v>1200</v>
       </c>
       <c r="I58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
@@ -3635,7 +3769,7 @@
         <v>1100</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
@@ -3647,220 +3781,232 @@
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>75900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>80700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>6300</v>
       </c>
       <c r="V58" s="3">
         <v>6300</v>
       </c>
       <c r="W58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="X58" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>90500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>98800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>68700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>61100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>54300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E60" s="3">
         <v>87200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>115100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>103700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>138800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>116400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>145300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>130000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>95300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>170200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>164400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>111300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>101300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>99000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E61" s="3">
         <v>61800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>61500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>63900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>198800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>239200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>168200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>140200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>194800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>221500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>216000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>188000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,64 +4014,67 @@
         <v>7700</v>
       </c>
       <c r="E62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F62" s="3">
         <v>8000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>18100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>18300</v>
       </c>
       <c r="W62" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E66" s="3">
         <v>156700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>139400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>137000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>143000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>156900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>192600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>174200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>221100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>342400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>357600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>362200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>329400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>322300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>340900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>333400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>520800</v>
+      </c>
+      <c r="E72" s="3">
         <v>523200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>514900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>508400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>503400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>504600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>472100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>445300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>398200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>325200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>238700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>179200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>390100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>341700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>407900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>402100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>400800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>402900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>393100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>398800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>392200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>382700</v>
+      </c>
+      <c r="E76" s="3">
         <v>384600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>374400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>366600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>359400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>360500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>326300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>348300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>266400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>237700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>226900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>437100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>387100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>450500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>446600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>443100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>444400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>432000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>436200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>426700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>50900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>89000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E83" s="3">
         <v>9600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E89" s="3">
         <v>38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>109100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>52400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>119800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-29100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,13 +6017,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4600</v>
+        <v>-5500</v>
       </c>
       <c r="E96" s="3">
         <v>-4600</v>
@@ -5802,26 +6036,26 @@
         <v>-4600</v>
       </c>
       <c r="H96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-3800</v>
       </c>
       <c r="K96" s="3">
         <v>-3800</v>
       </c>
       <c r="L96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-54000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-53100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-136000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-67500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-52100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23600</v>
       </c>
     </row>
